--- a/public/datasets/updated details 2.xlsx
+++ b/public/datasets/updated details 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a79a1ab7723a8c73/GitHub/SelfMed/public/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_3851C0FDA0A38E85CFC2F2F7510A19C3797582BA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F0C6864-B3B6-4695-8C20-6C962792CA1D}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="11_3851C0FDA0A38E85CFC2F2F7510A19C3797582BA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E83567A8-EAE3-4007-9961-78C1D6931FB7}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7910,11 +7910,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="8.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
